--- a/Data for F_q-points on singular cubic threefolds X (in general).xlsx
+++ b/Data for F_q-points on singular cubic threefolds X (in general).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtywa\Dropbox\MIT &amp; Princeton\Sarnak references post-generals\Sarnak60\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B092617-58CF-48C2-A26E-59B694ABE01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950D965-ADA7-44CC-8D02-A0AE5ED5BC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>q</t>
   </si>
@@ -241,6 +241,39 @@
   </si>
   <si>
     <t>[10,-21,33,-26,-153]</t>
+  </si>
+  <si>
+    <t>x_4*x_5</t>
+  </si>
+  <si>
+    <t>x_3*x_4*x_5</t>
+  </si>
+  <si>
+    <t>x_1^3+x_2^3+x_3*x_4*x_5</t>
+  </si>
+  <si>
+    <t>x_1^3+x_2^3+x_3^3+x_3*x_4*x_5</t>
+  </si>
+  <si>
+    <t>(2*x_1^3 + x_1*x_2*x_3 + 2*x_2^3 + x_3^3) + 2*(x_1^2+x_2*x_3)*x_4 + 2*(x_2^2+x_1*x_3)*x_5 + 2*x_3*x_4*x_5</t>
+  </si>
+  <si>
+    <t>F_std is non-homogeneous or non-cubic; abort.</t>
+  </si>
+  <si>
+    <t>[(0 : 0 : 0 : 1 : 0), (0 : 0 : 0 : 0 : 1)]</t>
+  </si>
+  <si>
+    <t>-x_1^2*x_2 - 2*x_2^3 - 2*x_1^2*x_3 + x_1*x_2*x_3 - x_2^2*x_3 - x_1*x_3^2 - 2*x_2*x_3^2 + 2*x_2^2*x_4 - x_1*x_3*x_4 - 2*x_2*x_3*x_4 - 2*x_3^2*x_4 + x_1*x_4^2 + x_3*x_4^2 + x_1^2*x_5 + x_1*x_2*x_5 + 2*x_1*x_3*x_5 + x_3^2*x_5 - 2*x_1*x_4*x_5 + x_2*x_4*x_5 - 2*x_3*x_4*x_5 + x_1*x_5^2 - x_2*x_5^2 + x_3*x_5^3</t>
+  </si>
+  <si>
+    <t>-x_1^2*x_2 - 2*x_2^3 - 2*x_1^2*x_3 + x_1*x_2*x_3 - x_2^2*x_3 - x_1*x_3^2 - 2*x_2*x_3^2 + 2*x_2^2*x_4 - x_1*x_3*x_4 - 2*x_2*x_3*x_4 - 2*x_3^2*x_4 + x_1*x_4^2 + x_3*x_4^2 + x_1^2*x_5 + x_1*x_2*x_5 + 2*x_1*x_3*x_5 + x_3^2*x_5 - 2*x_1*x_4*x_5 + x_2*x_4*x_5 - 2*x_3*x_4*x_5 + x_1*x_5^2 - x_2*x_5^2 + x_3*x_5^4</t>
+  </si>
+  <si>
+    <t>[101,10007,10009]</t>
+  </si>
+  <si>
+    <t>[10100, 100130042, 100170072]</t>
   </si>
 </sst>
 </file>
@@ -578,17 +611,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="17.2265625" customWidth="1"/>
     <col min="2" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="22.2265625" customWidth="1"/>
     <col min="7" max="7" width="11.40625" customWidth="1"/>
@@ -1169,6 +1202,213 @@
         <v>36</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>110</v>
+      </c>
+      <c r="F30">
+        <v>110</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>10007</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32">
+        <v>-20014</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>10009</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>380342</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data for F_q-points on singular cubic threefolds X (in general).xlsx
+++ b/Data for F_q-points on singular cubic threefolds X (in general).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtywa\Dropbox\MIT &amp; Princeton\Sarnak references post-generals\Sarnak60\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950D965-ADA7-44CC-8D02-A0AE5ED5BC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3359B570-88E6-4C3A-A1A6-66562FD90E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>q</t>
   </si>
@@ -262,12 +262,6 @@
   </si>
   <si>
     <t>[(0 : 0 : 0 : 1 : 0), (0 : 0 : 0 : 0 : 1)]</t>
-  </si>
-  <si>
-    <t>-x_1^2*x_2 - 2*x_2^3 - 2*x_1^2*x_3 + x_1*x_2*x_3 - x_2^2*x_3 - x_1*x_3^2 - 2*x_2*x_3^2 + 2*x_2^2*x_4 - x_1*x_3*x_4 - 2*x_2*x_3*x_4 - 2*x_3^2*x_4 + x_1*x_4^2 + x_3*x_4^2 + x_1^2*x_5 + x_1*x_2*x_5 + 2*x_1*x_3*x_5 + x_3^2*x_5 - 2*x_1*x_4*x_5 + x_2*x_4*x_5 - 2*x_3*x_4*x_5 + x_1*x_5^2 - x_2*x_5^2 + x_3*x_5^3</t>
-  </si>
-  <si>
-    <t>-x_1^2*x_2 - 2*x_2^3 - 2*x_1^2*x_3 + x_1*x_2*x_3 - x_2^2*x_3 - x_1*x_3^2 - 2*x_2*x_3^2 + 2*x_2^2*x_4 - x_1*x_3*x_4 - 2*x_2*x_3*x_4 - 2*x_3^2*x_4 + x_1*x_4^2 + x_3*x_4^2 + x_1^2*x_5 + x_1*x_2*x_5 + 2*x_1*x_3*x_5 + x_3^2*x_5 - 2*x_1*x_4*x_5 + x_2*x_4*x_5 - 2*x_3*x_4*x_5 + x_1*x_5^2 - x_2*x_5^2 + x_3*x_5^4</t>
   </si>
   <si>
     <t>[101,10007,10009]</t>
@@ -613,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1342,7 +1336,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
@@ -1365,7 +1359,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
@@ -1397,13 +1391,13 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
         <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>64</v>

--- a/Data for F_q-points on singular cubic threefolds X (in general).xlsx
+++ b/Data for F_q-points on singular cubic threefolds X (in general).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtywa\Dropbox\MIT &amp; Princeton\Sarnak references post-generals\Sarnak60\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3359B570-88E6-4C3A-A1A6-66562FD90E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAFB72D-7620-45E7-AAA7-F0E350CAAED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,12 +81,6 @@
     <t>Radical of Jacobian ideal of X := V(F) (if nontrivial)</t>
   </si>
   <si>
-    <t>LazyErrorCount(F,q)</t>
-  </si>
-  <si>
-    <t>StdConicBundleErrorCount(F,q)</t>
-  </si>
-  <si>
     <t>(-2*x_1 - x_2)*x_4^2 + (x_1 - 2*x_2 - x_3)*x_4*x_5 + (x_1 + 2*x_2)*x_5^2 + (-2*x_1^2 + 2*x_2^2 - 2*x_1*x_3 + 2*x_2*x_3 - x_3^2)*x_4 + (-2*x_1^2 - 2*x_1*x_2 - x_2^2 - x_1*x_3 - x_3^2)*x_5 - 2*x_1^3 - x_1^2*x_2 - x_1*x_2^2 + x_2^3 - x_1^2*x_3 - x_1*x_2*x_3 + x_2^2*x_3 - x_3^3</t>
   </si>
   <si>
@@ -268,6 +262,12 @@
   </si>
   <si>
     <t>[10100, 100130042, 100170072]</t>
+  </si>
+  <si>
+    <t>LazyErrorCount(F,GF(q))</t>
+  </si>
+  <si>
+    <t>StdConicBundleErrorCount(F,GF(q))</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -629,27 +629,27 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -664,15 +664,15 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -687,15 +687,15 @@
         <v>-5</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -710,15 +710,15 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -733,15 +733,15 @@
         <v>-15</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -756,15 +756,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -779,15 +779,15 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -802,15 +802,15 @@
         <v>-10</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -825,15 +825,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -848,15 +848,15 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -871,15 +871,15 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -894,15 +894,15 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -917,15 +917,15 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -940,15 +940,15 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -963,38 +963,38 @@
         <v>-5</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1009,15 +1009,15 @@
         <v>-5</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1032,15 +1032,15 @@
         <v>-5</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1055,15 +1055,15 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1078,15 +1078,15 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1101,15 +1101,15 @@
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1124,15 +1124,15 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1147,15 +1147,15 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1170,133 +1170,133 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>11</v>
@@ -1308,99 +1308,99 @@
         <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31">
         <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>10007</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F32">
         <v>-20014</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>10009</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F33">
         <v>380342</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
         <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
